--- a/biology/Zoologie/Cephalotes_lenca/Cephalotes_lenca.xlsx
+++ b/biology/Zoologie/Cephalotes_lenca/Cephalotes_lenca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes lenca est une espèce de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes lenca est une espèce de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est native du Nicaragua et du Honduras, en Amérique centrale[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est native du Nicaragua et du Honduras, en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cephalotes lenca a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d)[6] dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d)[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephalotes lenca a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d) dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, lenca, lui a été donnée en l'honneur des Lenca, un groupe ethnique du Honduras[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, lenca, lui a été donnée en l'honneur des Lenca, un groupe ethnique du Honduras.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Maria L. de Andrade et Cesare Baroni Urbani, « Diversity and adaptation in the ant genus Cephalotes, past and present (Hymenoptera, Formicidae) », Stuttgarter Beiträge zur Naturkunde (B), Musée d'histoire naturelle de Stuttgart, vol. 271,‎ 29 janvier 1999, p. 1-889 (ISSN 0341-0153, lire en ligne)</t>
         </is>
